--- a/cloud_labs/lab_1/aws_team_4.xlsx
+++ b/cloud_labs/lab_1/aws_team_4.xlsx
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +754,7 @@
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
